--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\corona_turkey\corona_turkey\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735407A-70D8-4B1D-8C20-B05366F31C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F81FE-93A3-418B-8942-CDFB13D105B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Turkiye</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,6 +589,26 @@
         <v>97</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43908</v>
+      </c>
+      <c r="D9" s="2">
+        <v>191</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F81FE-93A3-418B-8942-CDFB13D105B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929BEFF-68E5-4942-8048-F19C96545B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Turkiye</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,6 +609,26 @@
         <v>189</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43909</v>
+      </c>
+      <c r="D10" s="2">
+        <v>359</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929BEFF-68E5-4942-8048-F19C96545B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5F78D-7EEE-4C1C-A97A-6464FE49CD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="0" yWindow="200" windowWidth="19200" windowHeight="10050" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Turkiye</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,6 +629,26 @@
         <v>355</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43910</v>
+      </c>
+      <c r="D11" s="2">
+        <v>670</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5F78D-7EEE-4C1C-A97A-6464FE49CD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CDE357-743A-40E3-9689-7534914D838A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="200" windowWidth="19200" windowHeight="10050" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Turkiye</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>olen</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>percent_pos</t>
   </si>
 </sst>
 </file>
@@ -418,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,8 +659,73 @@
         <v>661</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43911</v>
+      </c>
+      <c r="D12" s="2">
+        <v>947</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <f>D12-E12</f>
+        <v>926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DE464-F485-4042-8655-CD20F51E3B9C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B2">
+        <v>3656</v>
+      </c>
+      <c r="C2">
+        <v>311</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2*100</f>
+        <v>8.5065645514223203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CDE357-743A-40E3-9689-7534914D838A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4627B-0EDF-4320-A148-D00862602D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Turkiye</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>percent_pos</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,11 +119,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -459,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -499,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -519,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -539,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -559,7 +580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -579,7 +600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -599,7 +620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -619,7 +640,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -639,7 +660,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -659,7 +680,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -678,6 +699,27 @@
       <c r="F12">
         <f>D12-E12</f>
         <v>926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43912</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1236</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <f>D13-E13</f>
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -688,44 +730,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DE464-F485-4042-8655-CD20F51E3B9C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43909</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1981</v>
+      </c>
+      <c r="C2" s="4">
+        <v>168</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/B2*100</f>
+        <v>8.4805653710247348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>43910</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="4">
         <v>3656</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="4">
         <v>311</v>
       </c>
-      <c r="D2">
-        <f>C2/B2*100</f>
+      <c r="D3" s="4">
+        <f>C3/B3*100</f>
         <v>8.5065645514223203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43911</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2953</v>
+      </c>
+      <c r="C4" s="4">
+        <v>277</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4/B4*100</f>
+        <v>9.3802912292583809</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4627B-0EDF-4320-A148-D00862602D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F3C6F-CBDF-4314-9C5D-D60E365DC4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="8676" yWindow="600" windowWidth="30960" windowHeight="15852" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,6 +720,21 @@
       <c r="F13">
         <f>D13-E13</f>
         <v>1206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>43913</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1539</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <f>D14-E14</f>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>

--- a/Korona/data/vaka_sayisi_tur.xlsx
+++ b/Korona/data/vaka_sayisi_tur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Documents\workingdirectory\shiny-server\Korona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F3C6F-CBDF-4314-9C5D-D60E365DC4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7474D3D7-6E88-4CA5-AAEB-8B0D436C86A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="600" windowWidth="30960" windowHeight="15852" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
+    <workbookView xWindow="3480" yWindow="828" windowWidth="30960" windowHeight="15852" xr2:uid="{407975B0-CCB0-40CD-90AE-1021614F5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Turkiye</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B42DD3-910F-4F01-92FC-89DC173690B5}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,6 +723,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" s="1">
         <v>43913</v>
       </c>
@@ -735,6 +741,202 @@
       <c r="F14">
         <f>D14-E14</f>
         <v>1502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43914</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1872</v>
+      </c>
+      <c r="E15">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F16" si="0">D15-E15</f>
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43915</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2433</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43929</v>
       </c>
     </row>
   </sheetData>
